--- a/data_3supermercados.xlsx
+++ b/data_3supermercados.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
   <si>
     <t>Nombre_producto</t>
   </si>
   <si>
-    <t xml:space="preserve">Precios_soles </t>
+    <t>Precios_soles</t>
   </si>
   <si>
     <t>Supermercado</t>
@@ -70,42 +70,42 @@
     <t>SARDINAS EN ACEITE AL LIMON</t>
   </si>
   <si>
+    <t>FILETE ATUN EN ACEITE</t>
+  </si>
+  <si>
+    <t>FILETE DE ATUN EN ACEITE</t>
+  </si>
+  <si>
+    <t>TROZOS ATUN EN ACEITE</t>
+  </si>
+  <si>
     <t>LOMOS DE ATUN EN ACEITE</t>
   </si>
   <si>
-    <t>FILETE DE ATUN EN ACEITE</t>
-  </si>
-  <si>
-    <t>FILETE ATUN EN ACEITE</t>
-  </si>
-  <si>
-    <t>TROZOS ATUN EN ACEITE</t>
-  </si>
-  <si>
     <t>SÓLIDO DE ATÚN EN ACEITE 170 GR</t>
   </si>
   <si>
     <t>FILETE DE ATUN EN ACEITE GIRASOL</t>
   </si>
   <si>
+    <t>FILETE DE ATÚN EN ACEITE TOTTUS 170 GR</t>
+  </si>
+  <si>
     <t>SÓLIDO DE CABALLA EN ACEITE CAMPOMAR 170 GR</t>
   </si>
   <si>
-    <t>FILETE DE ATÚN EN ACEITE TOTTUS 170 GR</t>
-  </si>
-  <si>
     <t>LOMITO DE ATUN ACEITE VEGETAL 170 GR</t>
   </si>
   <si>
     <t>FILETE DE ATÚN EN ACEITE FLORIDA 150 GR</t>
   </si>
   <si>
+    <t>TROZOS DE ATÚN EN ACEITE VEGETAL CAMPOMAR 170 GR</t>
+  </si>
+  <si>
     <t>FILETE DE ATÚN CLARO EN ACEITE CAMPOMAR 170 GR</t>
   </si>
   <si>
-    <t>TROZOS DE ATÚN EN ACEITE VEGETAL CAMPOMAR 170 GR</t>
-  </si>
-  <si>
     <t>FILETE DE ATUN EN ACEITE TOTTUS PACK 2 X 170G</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>PACK FILETE DE ATÚN CAMPOMAR 6 UNIDADES</t>
   </si>
   <si>
+    <t>PACK SÓLIDO DE CABALLA 6 UNIDADES CAMPOMAR 170 GR</t>
+  </si>
+  <si>
     <t>PACK TROZOS DE ATÚN 6 UNIDADES 170 GR</t>
   </si>
   <si>
-    <t>PACK SÓLIDO DE CABALLA 6 UNIDADES CAMPOMAR 170 GR</t>
-  </si>
-  <si>
     <t>ACEITE DE CANOLA ORGÁNICO REFINADO TOTTUS 750 ML</t>
   </si>
   <si>
@@ -160,24 +160,6 @@
     <t>ACEITE DE OLIVA ARBEQUINA VIRGEN EXTRA GARCÍA DE LA CRUZ 250 ML</t>
   </si>
   <si>
-    <t>Aceite Vegetal PRIMOR Premium Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal BELL'S Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite de Soya SAO Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal PRIMOR Premium Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal BELL'S Galonera</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal NICOLINI Botella</t>
-  </si>
-  <si>
     <t>Aceite de Girasol SALAD SPECIAL Botella 90</t>
   </si>
   <si>
@@ -187,39 +169,18 @@
     <t xml:space="preserve">Pack Filete de Atún FLORIDA en Aceite Vegetal </t>
   </si>
   <si>
-    <t>Aceite Vegetal BELL'S Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal COCINERO Botella 1</t>
-  </si>
-  <si>
     <t>Aceite de Soya BELL'S Botella 90</t>
   </si>
   <si>
     <t xml:space="preserve">Aceite Vegetal SALAD Canola con Antioxidantes </t>
   </si>
   <si>
-    <t>Aceite Vegetal BELL'S SELECCIÓN Botella</t>
-  </si>
-  <si>
     <t>Pack Aceite de Oliva EL OLIVAR Extra Virgen Bo</t>
   </si>
   <si>
-    <t>Aceite Vegetal PRIMOR Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal COCINERO Botella</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal NICOLINI Botella 90</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aceite de Oliva BELL'S SELECCIÓN Extra Virgen </t>
   </si>
   <si>
-    <t>Aceite Vegetal DELEITE Botella 90</t>
-  </si>
-  <si>
     <t>Aceite de Ajonjolí BELL'S SELECCIÓN Frasco 200</t>
   </si>
   <si>
@@ -250,103 +211,130 @@
     <t xml:space="preserve">Aceite de Oliva ACAVILLE Extra Virgen Botella </t>
   </si>
   <si>
+    <t>Aceite de Oliva BELL'S Virgen Botella 20</t>
+  </si>
+  <si>
     <t>Aceite de Oliva CARBONELL Extra Virgen Botella</t>
   </si>
   <si>
+    <t>Aceite de Oliva CARBONELL Extra Virgen Spray 2</t>
+  </si>
+  <si>
     <t>Aceite de Oliva HUERTO ALAMEIN Puro Botella</t>
   </si>
   <si>
     <t xml:space="preserve">Aceite de Sacha Inchi NUTRIOMEGA Extra Virgen </t>
   </si>
   <si>
+    <t>Aceite de Oliva CARBONELL Sabor Afrutado Inten</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva BELL'S Virgen Botella 90</t>
+  </si>
+  <si>
+    <t>Pack Pañales Bebé BABYSEC Súper Premium XXG Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack Pañales Bebé BABYSEC Premium XXG Paquete </t>
+  </si>
+  <si>
+    <t>Aceite de Oliva VALDEPORRES Gran Selección Bot</t>
+  </si>
+  <si>
+    <t>Aceite de Coco Virgen MI TIERRA Frasco 3</t>
+  </si>
+  <si>
+    <t>Aceite de Ajonjolí OLIVOS DEL SUR Botella 500m</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva VALDEPORRES Suave Botella</t>
+  </si>
+  <si>
     <t>Aceite de Oliva OLIVOS DEL SUR Extra Virgen Bo</t>
   </si>
   <si>
-    <t>Aceite de Oliva BELL'S Virgen Botella 90</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal DEL CIELO Soya Bidón</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva VALDEPORRES Gran Selección Bot</t>
-  </si>
-  <si>
-    <t>Aceite de Ajonjolí OLIVOS DEL SUR Botella 500m</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva VALDEPORRES Suave Botella</t>
+    <t>Aceite de Oliva BELL'S Virgen Botella 50</t>
+  </si>
+  <si>
+    <t>Aceite de Coco BELL'S SELECCIÓN Frasco 35</t>
   </si>
   <si>
     <t>Aceite de Oliva EL OLIVAR Puro Botella</t>
   </si>
   <si>
+    <t>Aceite de Oliva VALDEPORRES Virgen Botella</t>
+  </si>
+  <si>
+    <t>Aceite de Sacha Inchi HUERTO ALAMEIN Extra Vir</t>
+  </si>
+  <si>
     <t>Aceite de Maíz BASSO Botella</t>
   </si>
   <si>
-    <t>Pack Pañales Bebé BABYSEC Súper Premium XXG Pa</t>
+    <t>Aceite de Maíz MAZOLA Botella 71</t>
+  </si>
+  <si>
+    <t>Pack Pañales Bebé BABYSEC Premium XG Paquete 1</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal MAZOLA Canola y Girasol Spray 1</t>
   </si>
   <si>
     <t>Pack Pañales Bebé BABYSEC Súper Premium XG Paq</t>
   </si>
   <si>
-    <t>Pack Pañales Bebé BABYSEC Premium XG Paquete 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack Pañales Bebé BABYSEC Premium XXG Paquete </t>
-  </si>
-  <si>
-    <t>Aceite de Girasol Cuisine &amp; Co Botella 1 Lt</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Primor Corazón 900ml</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 1 lt</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Deleite Premium 900ml</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Cocinero 900ml</t>
-  </si>
-  <si>
-    <t>Aceite Sabor Original Pam Spray 6 Onzas</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Filippo Berio Extra Virgen Botella 1 L</t>
-  </si>
-  <si>
-    <t>Aceite Renovador de Muebles Pride Aerosol 378 ml</t>
-  </si>
-  <si>
-    <t>Aceite Sacha Inchi Nutriomega Extra Virgen Botella 250 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Maíz Mazola 473ml</t>
-  </si>
-  <si>
-    <t>Aceite Blindax Oil Gas SAE 20W-50 Frasco 950 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Virgen Botella 500 ml</t>
-  </si>
-  <si>
-    <t>Aceite Vegetal Cil Balde 20 Litros</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Extra Virgen Huerto Alamein Botella 200 cc</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Filippo Berio Puro Botella 500 ml</t>
-  </si>
-  <si>
-    <t>Aceite de Maíz Mazola Original Botella 710 ml</t>
-  </si>
-  <si>
-    <t>Aceite Original Mazola Spray Lata 142 g</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva Olivos del Sur Extra Virgen Botella 1 L</t>
+    <t>Aceite Vegetal Cuisine&amp;Co Botella 900 ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Máxima 900ml</t>
+  </si>
+  <si>
+    <t>Aceite de Soya Sao 900ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva El Olivar Extra Virgen 500ml</t>
+  </si>
+  <si>
+    <t>Aceite de Coco Orgánico Cuisine &amp; Co 350ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Nicolini 900ml</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal Cocinero Botella 5 Litros</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Filippo Berio Puro Botella 1 L</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Botella 250 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Cuisine &amp; Co Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Cuisine &amp; Co Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite De Canola Borges Botella 1 Litro</t>
+  </si>
+  <si>
+    <t>Aceite Oliva Extra Virgen Huerto Alamein 1L</t>
+  </si>
+  <si>
+    <t>Aceite de Maíz Florida 1L</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Extra Virgen Carbonell Botella 500 ml</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva El Olivar Extra Virgen Intenso 500ml</t>
+  </si>
+  <si>
+    <t>Aceite Oliva Puro Huerto Alamein Botella 1 Litro</t>
+  </si>
+  <si>
+    <t>Aceite de Oliva Borges Extra Virgen Botella 250 ml</t>
   </si>
   <si>
     <t>tottus</t>
@@ -741,7 +729,7 @@
         <v>19.9</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -755,7 +743,7 @@
         <v>10.9</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -769,7 +757,7 @@
         <v>26.6</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -783,7 +771,7 @@
         <v>25.2</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -797,7 +785,7 @@
         <v>55.9</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -811,7 +799,7 @@
         <v>8.9</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -825,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -839,7 +827,7 @@
         <v>6.2</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -853,7 +841,7 @@
         <v>7.7</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -867,7 +855,7 @@
         <v>11.3</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -881,7 +869,7 @@
         <v>6.6</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -895,7 +883,7 @@
         <v>26.9</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -909,7 +897,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -920,10 +908,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -937,7 +925,7 @@
         <v>6.7</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -948,10 +936,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -962,10 +950,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>6.95</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -979,7 +967,7 @@
         <v>5.8</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -993,7 +981,7 @@
         <v>6.4</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1004,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1018,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1035,7 +1023,7 @@
         <v>13.5</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1049,7 +1037,7 @@
         <v>6.3</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1060,10 +1048,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1074,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1091,7 +1079,7 @@
         <v>8.9</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1105,7 +1093,7 @@
         <v>4.6</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1119,7 +1107,7 @@
         <v>34.5</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1133,7 +1121,7 @@
         <v>20.5</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1147,7 +1135,7 @@
         <v>18.1</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1161,7 +1149,7 @@
         <v>8.1</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1175,7 +1163,7 @@
         <v>39.9</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1186,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>39.5</v>
+        <v>33.9</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1200,10 +1188,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>33.9</v>
+        <v>39.5</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1217,7 +1205,7 @@
         <v>22.5</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1231,7 +1219,7 @@
         <v>92.3</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1245,7 +1233,7 @@
         <v>38.6</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1259,7 +1247,7 @@
         <v>18.4</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1273,7 +1261,7 @@
         <v>18.4</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1287,7 +1275,7 @@
         <v>67.5</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1301,7 +1289,7 @@
         <v>26.4</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1315,7 +1303,7 @@
         <v>18.4</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1329,7 +1317,7 @@
         <v>18.4</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1343,7 +1331,7 @@
         <v>28.9</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1357,7 +1345,7 @@
         <v>25.2</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1371,7 +1359,7 @@
         <v>14.9</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1382,10 +1370,10 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1396,10 +1384,10 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>8.390000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1410,10 +1398,10 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>8.99</v>
+        <v>17.97</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1424,10 +1412,10 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1438,10 +1426,10 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>42.5</v>
+        <v>7.9</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1452,10 +1440,10 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>9.99</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1466,10 +1454,10 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7.9</v>
+        <v>29.9</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1480,10 +1468,10 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1494,10 +1482,10 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>17.97</v>
+        <v>58.49</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1508,10 +1496,10 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>25.9</v>
+        <v>14.59</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1522,10 +1510,10 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>19.49</v>
+        <v>12.29</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1533,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>8.6</v>
+        <v>25.9</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1547,13 +1535,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>7.9</v>
+        <v>21.9</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1561,13 +1549,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>9.9</v>
+        <v>36.9</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1575,13 +1563,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>12.9</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1589,13 +1577,13 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>11.5</v>
+        <v>21.09</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1603,13 +1591,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>11.09</v>
+        <v>32.9</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1617,13 +1605,13 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>9.99</v>
+        <v>17.9</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1631,13 +1619,13 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>29.9</v>
+        <v>32.9</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1645,13 +1633,13 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1659,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>10.9</v>
+        <v>38.9</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1673,13 +1661,13 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>58.49</v>
+        <v>33.29</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1687,13 +1675,13 @@
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>14.59</v>
+        <v>15.9</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1701,13 +1689,13 @@
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>12.29</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1715,13 +1703,13 @@
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72">
-        <v>25.9</v>
+        <v>23.9</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1729,13 +1717,13 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1743,13 +1731,13 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>36.9</v>
+        <v>21.59</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1757,13 +1745,13 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C75">
-        <v>12.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1771,13 +1759,13 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C76">
-        <v>21.09</v>
+        <v>29.8</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1785,13 +1773,13 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>32.9</v>
+        <v>129.9</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1799,13 +1787,13 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C78">
-        <v>17.9</v>
+        <v>129.9</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1813,13 +1801,13 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C79">
-        <v>32.9</v>
+        <v>17.5</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1827,13 +1815,13 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80">
-        <v>38.9</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1841,13 +1829,13 @@
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C81">
-        <v>33.29</v>
+        <v>30.39</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1855,13 +1843,13 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1869,13 +1857,13 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C83">
-        <v>23.9</v>
+        <v>32.9</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1883,13 +1871,13 @@
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>21.59</v>
+        <v>30.9</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1897,13 +1885,13 @@
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85">
-        <v>45.59</v>
+        <v>17.9</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1911,13 +1899,13 @@
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C86">
-        <v>29.8</v>
+        <v>12.9</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1925,13 +1913,13 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C87">
-        <v>54.5</v>
+        <v>45.59</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1939,13 +1927,13 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88">
-        <v>68.90000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1953,13 +1941,13 @@
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89">
-        <v>31.9</v>
+        <v>38.5</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1967,13 +1955,13 @@
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C90">
-        <v>32.9</v>
+        <v>34.9</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1981,13 +1969,13 @@
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91">
-        <v>30.9</v>
+        <v>21.3</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1995,13 +1983,13 @@
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C92">
-        <v>38.5</v>
+        <v>18.4</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2009,13 +1997,13 @@
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>18.4</v>
+        <v>26.5</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2023,13 +2011,13 @@
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <v>129.9</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2037,13 +2025,13 @@
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C95">
-        <v>129.9</v>
+        <v>140.9</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2051,13 +2039,13 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96">
-        <v>129.9</v>
+        <v>21.59</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2065,13 +2053,13 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97">
         <v>129.9</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2079,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98">
-        <v>11.99</v>
+        <v>8.9</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2093,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C99">
-        <v>12.29</v>
+        <v>8.6</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2107,13 +2095,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100">
-        <v>35.9</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2121,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C101">
-        <v>9.390000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2135,13 +2123,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C102">
-        <v>11.09</v>
+        <v>25.99</v>
       </c>
       <c r="D102" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2149,13 +2137,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C103">
-        <v>21.5</v>
+        <v>11.29</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2163,13 +2151,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C104">
-        <v>45.9</v>
+        <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2177,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>21.6</v>
+        <v>37.9</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2191,13 +2179,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C106">
-        <v>25.5</v>
+        <v>15.69</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2205,13 +2193,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C107">
-        <v>25.4</v>
+        <v>17.9</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2219,13 +2207,13 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C108">
-        <v>17.99</v>
+        <v>22.9</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2233,13 +2221,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C109">
-        <v>29.6</v>
+        <v>16.9</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2247,13 +2235,13 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C110">
-        <v>216.5</v>
+        <v>36.9</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2261,13 +2249,13 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C111">
-        <v>11.8</v>
+        <v>14.59</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2275,13 +2263,13 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C112">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="D112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2289,13 +2277,13 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C113">
-        <v>32.5</v>
+        <v>29.9</v>
       </c>
       <c r="D113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2303,13 +2291,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
         <v>109</v>
-      </c>
-      <c r="C114">
-        <v>20.49</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2317,13 +2305,13 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C115">
-        <v>48.8</v>
+        <v>13.5</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
